--- a/data/pca/factorExposure/factorExposure_2016-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009231556250174652</v>
+        <v>0.0124807992839192</v>
       </c>
       <c r="C2">
-        <v>0.05254897726238333</v>
+        <v>0.04266067511031358</v>
       </c>
       <c r="D2">
-        <v>-0.02095766742304664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06474199839717826</v>
+      </c>
+      <c r="E2">
+        <v>0.05197646910009146</v>
+      </c>
+      <c r="F2">
+        <v>-0.08575174619065098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05664280692212116</v>
+        <v>0.03140577769719659</v>
       </c>
       <c r="C3">
-        <v>0.09913718848076283</v>
+        <v>0.08057692473730614</v>
       </c>
       <c r="D3">
-        <v>-0.05483947051741374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09724191377748162</v>
+      </c>
+      <c r="E3">
+        <v>0.06488199690063115</v>
+      </c>
+      <c r="F3">
+        <v>-0.01854966119082064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06506143448391162</v>
+        <v>0.05511178885167285</v>
       </c>
       <c r="C4">
-        <v>0.05932807149243102</v>
+        <v>0.06581544626121449</v>
       </c>
       <c r="D4">
-        <v>-0.01683407304675645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06046157110641255</v>
+      </c>
+      <c r="E4">
+        <v>0.04494871574190813</v>
+      </c>
+      <c r="F4">
+        <v>-0.07980225587473271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02852019158501316</v>
+        <v>0.03254108663587165</v>
       </c>
       <c r="C6">
-        <v>0.0410720936387198</v>
+        <v>0.0368505133250952</v>
       </c>
       <c r="D6">
-        <v>-0.02765136874472439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07046756012649665</v>
+      </c>
+      <c r="E6">
+        <v>0.05935325098858901</v>
+      </c>
+      <c r="F6">
+        <v>-0.07277246460690802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0211147826112803</v>
+        <v>0.01983452540018296</v>
       </c>
       <c r="C7">
-        <v>0.03980772598399759</v>
+        <v>0.03619696309647035</v>
       </c>
       <c r="D7">
-        <v>0.005176941568854666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04057413880310277</v>
+      </c>
+      <c r="E7">
+        <v>0.03337956102486524</v>
+      </c>
+      <c r="F7">
+        <v>-0.1087417740964798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001891517628163252</v>
+        <v>0.003623914949778346</v>
       </c>
       <c r="C8">
-        <v>0.01873604074059368</v>
+        <v>0.02521820536387315</v>
       </c>
       <c r="D8">
-        <v>-0.02950271327834414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03697403418387474</v>
+      </c>
+      <c r="E8">
+        <v>0.03923499899867464</v>
+      </c>
+      <c r="F8">
+        <v>-0.05305973340705077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03004121582806197</v>
+        <v>0.03458241001454643</v>
       </c>
       <c r="C9">
-        <v>0.04268170944030764</v>
+        <v>0.05127170625255336</v>
       </c>
       <c r="D9">
-        <v>-0.01215471186128352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04676963500182219</v>
+      </c>
+      <c r="E9">
+        <v>0.03842890172702439</v>
+      </c>
+      <c r="F9">
+        <v>-0.08792976901345986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0792971763003269</v>
+        <v>0.104396959170803</v>
       </c>
       <c r="C10">
-        <v>-0.1903899485193135</v>
+        <v>-0.1873452436568264</v>
       </c>
       <c r="D10">
-        <v>-0.0074005288333406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-7.946257728668018e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.04525927058897544</v>
+      </c>
+      <c r="F10">
+        <v>-0.03912402468687996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03884158440621654</v>
+        <v>0.03442037846830909</v>
       </c>
       <c r="C11">
-        <v>0.05447166240006688</v>
+        <v>0.05201175570705163</v>
       </c>
       <c r="D11">
-        <v>0.002155623932797346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03382666759329722</v>
+      </c>
+      <c r="E11">
+        <v>0.004852271855839732</v>
+      </c>
+      <c r="F11">
+        <v>-0.0638300137971988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03413467939458373</v>
+        <v>0.0352512128001316</v>
       </c>
       <c r="C12">
-        <v>0.0450824496457279</v>
+        <v>0.04692224127283207</v>
       </c>
       <c r="D12">
-        <v>0.0008084569343418675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0265370847123889</v>
+      </c>
+      <c r="E12">
+        <v>0.01420106629195233</v>
+      </c>
+      <c r="F12">
+        <v>-0.06654602603636157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01079728901182497</v>
+        <v>0.01114397463513813</v>
       </c>
       <c r="C13">
-        <v>0.04309071848342123</v>
+        <v>0.04170578100309254</v>
       </c>
       <c r="D13">
-        <v>-0.01420976984713186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06670432597476464</v>
+      </c>
+      <c r="E13">
+        <v>0.06385579692943165</v>
+      </c>
+      <c r="F13">
+        <v>-0.11441515111162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.005639111833255925</v>
+        <v>0.005159272259376058</v>
       </c>
       <c r="C14">
-        <v>0.03229057474525371</v>
+        <v>0.02891932646664046</v>
       </c>
       <c r="D14">
-        <v>0.01814080367132927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03141605849185895</v>
+      </c>
+      <c r="E14">
+        <v>0.02757619628303166</v>
+      </c>
+      <c r="F14">
+        <v>-0.09823258675357774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00146505532275177</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002617610743540826</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.002793411872863128</v>
+      </c>
+      <c r="E15">
+        <v>0.0003846662005257235</v>
+      </c>
+      <c r="F15">
+        <v>-0.002266129552554696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0337730621647304</v>
+        <v>0.03239319731183416</v>
       </c>
       <c r="C16">
-        <v>0.04021076820631844</v>
+        <v>0.0449269602884576</v>
       </c>
       <c r="D16">
-        <v>-0.003875825730977531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02950735932868677</v>
+      </c>
+      <c r="E16">
+        <v>0.01939626615849261</v>
+      </c>
+      <c r="F16">
+        <v>-0.06868829255817623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02237307650910519</v>
+        <v>0.01543814790609906</v>
       </c>
       <c r="C19">
-        <v>0.06079629951566794</v>
+        <v>0.04983111813862571</v>
       </c>
       <c r="D19">
-        <v>-0.06661020973842802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1036284517618566</v>
+      </c>
+      <c r="E19">
+        <v>0.08022836823280197</v>
+      </c>
+      <c r="F19">
+        <v>-0.09602254209039628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01311052372991068</v>
+        <v>0.01274967706643526</v>
       </c>
       <c r="C20">
-        <v>0.0441859212336658</v>
+        <v>0.03994846647601699</v>
       </c>
       <c r="D20">
-        <v>-0.01441309914624377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04358387498389652</v>
+      </c>
+      <c r="E20">
+        <v>0.05548728669097009</v>
+      </c>
+      <c r="F20">
+        <v>-0.08930146727069879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007288046861873025</v>
+        <v>0.006468844863323083</v>
       </c>
       <c r="C21">
-        <v>0.04911114524347207</v>
+        <v>0.04300350384192161</v>
       </c>
       <c r="D21">
-        <v>-0.03384871584380172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07509628974366028</v>
+      </c>
+      <c r="E21">
+        <v>0.06909505027682811</v>
+      </c>
+      <c r="F21">
+        <v>-0.1332989717144519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.000649579563604487</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02287261161959635</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03319333905556511</v>
+      </c>
+      <c r="E22">
+        <v>0.01605857227946141</v>
+      </c>
+      <c r="F22">
+        <v>-0.01388360411623932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0005836929401462148</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02300308113570242</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0328928194620049</v>
+      </c>
+      <c r="E23">
+        <v>0.01636462908273978</v>
+      </c>
+      <c r="F23">
+        <v>-0.01376033612115468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02791732734426791</v>
+        <v>0.03071036516469422</v>
       </c>
       <c r="C24">
-        <v>0.04687313635207704</v>
+        <v>0.05294603356056827</v>
       </c>
       <c r="D24">
-        <v>0.0012800302818994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02759793969340447</v>
+      </c>
+      <c r="E24">
+        <v>0.01548822047724777</v>
+      </c>
+      <c r="F24">
+        <v>-0.07554830214912123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04424552051996188</v>
+        <v>0.04131822476901193</v>
       </c>
       <c r="C25">
-        <v>0.05785848934283699</v>
+        <v>0.05860306021457022</v>
       </c>
       <c r="D25">
-        <v>0.0113114944594102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02485293056617461</v>
+      </c>
+      <c r="E25">
+        <v>0.01233274578952731</v>
+      </c>
+      <c r="F25">
+        <v>-0.07846576254696122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01063021239623619</v>
+        <v>0.01327212343548332</v>
       </c>
       <c r="C26">
-        <v>0.01656467825561054</v>
+        <v>0.01524840766641819</v>
       </c>
       <c r="D26">
-        <v>-0.00210935574345699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02793520492533896</v>
+      </c>
+      <c r="E26">
+        <v>0.02806565745011138</v>
+      </c>
+      <c r="F26">
+        <v>-0.07429137402697936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0936594542222567</v>
+        <v>0.1395576541711444</v>
       </c>
       <c r="C28">
-        <v>-0.2173618509579528</v>
+        <v>-0.2384345245034388</v>
       </c>
       <c r="D28">
-        <v>-0.001675332331984635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01448901663121921</v>
+      </c>
+      <c r="E28">
+        <v>0.0473349366838034</v>
+      </c>
+      <c r="F28">
+        <v>-0.05370989220624763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01087266877257555</v>
+        <v>0.005835377959058575</v>
       </c>
       <c r="C29">
-        <v>0.02525162049706597</v>
+        <v>0.02562420694635957</v>
       </c>
       <c r="D29">
-        <v>0.01710368082467379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02402219298381588</v>
+      </c>
+      <c r="E29">
+        <v>0.03049599617043092</v>
+      </c>
+      <c r="F29">
+        <v>-0.08991476218514348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05049820555418219</v>
+        <v>0.03861225530892214</v>
       </c>
       <c r="C30">
-        <v>0.06474527673815762</v>
+        <v>0.06405932439856443</v>
       </c>
       <c r="D30">
-        <v>-0.03313112170485846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1101109267070703</v>
+      </c>
+      <c r="E30">
+        <v>0.03342088398056437</v>
+      </c>
+      <c r="F30">
+        <v>-0.1008055677093166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04222700485258681</v>
+        <v>0.05266840429109565</v>
       </c>
       <c r="C31">
-        <v>0.03232017766851894</v>
+        <v>0.05101417744151272</v>
       </c>
       <c r="D31">
-        <v>0.01132420725908297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00252826554130365</v>
+      </c>
+      <c r="E31">
+        <v>0.04519364366329592</v>
+      </c>
+      <c r="F31">
+        <v>-0.0809393446677609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.001271780480764919</v>
+        <v>0.003442192298227885</v>
       </c>
       <c r="C32">
-        <v>0.04546964583281806</v>
+        <v>0.03154529457784284</v>
       </c>
       <c r="D32">
-        <v>-0.0139858953635446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05053234314674222</v>
+      </c>
+      <c r="E32">
+        <v>0.02034025947132926</v>
+      </c>
+      <c r="F32">
+        <v>-0.07001051033002985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02495188967198177</v>
+        <v>0.02322477138127654</v>
       </c>
       <c r="C33">
-        <v>0.06118806002509891</v>
+        <v>0.05421838802253849</v>
       </c>
       <c r="D33">
-        <v>-0.01900967090233099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08406013750042129</v>
+      </c>
+      <c r="E33">
+        <v>0.04848435815980666</v>
+      </c>
+      <c r="F33">
+        <v>-0.1274700919434481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04985045895417908</v>
+        <v>0.0398047952401923</v>
       </c>
       <c r="C34">
-        <v>0.05482036068850871</v>
+        <v>0.06411446991104534</v>
       </c>
       <c r="D34">
-        <v>0.01302279593062948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0344171628449262</v>
+      </c>
+      <c r="E34">
+        <v>-0.005948362417363611</v>
+      </c>
+      <c r="F34">
+        <v>-0.0740635516650452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008089346481389868</v>
+        <v>0.0134907169625972</v>
       </c>
       <c r="C36">
-        <v>0.01215277614206355</v>
+        <v>0.01137362617243597</v>
       </c>
       <c r="D36">
-        <v>-0.002401307418169309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0297616519277096</v>
+      </c>
+      <c r="E36">
+        <v>0.03493915138153773</v>
+      </c>
+      <c r="F36">
+        <v>-0.08246851253912431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03128425242110318</v>
+        <v>0.02532666339117735</v>
       </c>
       <c r="C38">
-        <v>0.02609489863853932</v>
+        <v>0.02506966906333402</v>
       </c>
       <c r="D38">
-        <v>-0.0009193707843890009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02863885692017723</v>
+      </c>
+      <c r="E38">
+        <v>0.03479741835486237</v>
+      </c>
+      <c r="F38">
+        <v>-0.06703308922390935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03867996416869505</v>
+        <v>0.03636895216984394</v>
       </c>
       <c r="C39">
-        <v>0.07164201519221866</v>
+        <v>0.06846894435593649</v>
       </c>
       <c r="D39">
-        <v>-0.01920063759986096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05283708336189541</v>
+      </c>
+      <c r="E39">
+        <v>0.01728288447491452</v>
+      </c>
+      <c r="F39">
+        <v>-0.08970906718903617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01735494559284057</v>
+        <v>0.01524888740090831</v>
       </c>
       <c r="C40">
-        <v>0.02987768193701125</v>
+        <v>0.03685557453525904</v>
       </c>
       <c r="D40">
-        <v>-0.0336849981672746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04326025917090255</v>
+      </c>
+      <c r="E40">
+        <v>0.07142519602928787</v>
+      </c>
+      <c r="F40">
+        <v>-0.08742813542738964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01046698045553377</v>
+        <v>0.01812008535900997</v>
       </c>
       <c r="C41">
-        <v>0.003858741947547227</v>
+        <v>0.004655835012797291</v>
       </c>
       <c r="D41">
-        <v>0.001438156327423979</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02042916708434885</v>
+      </c>
+      <c r="E41">
+        <v>0.03726938182467565</v>
+      </c>
+      <c r="F41">
+        <v>-0.07263477247858657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.0008841145177801904</v>
+        <v>0.0004066291399748341</v>
       </c>
       <c r="C42">
-        <v>0.01770999327733735</v>
+        <v>0.009315263275432195</v>
       </c>
       <c r="D42">
-        <v>-0.008879299861160282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.002878570260171446</v>
+      </c>
+      <c r="E42">
+        <v>0.008606265079736906</v>
+      </c>
+      <c r="F42">
+        <v>0.01280424851969487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03115115588288336</v>
+        <v>0.02956880971151337</v>
       </c>
       <c r="C43">
-        <v>0.0185233253581866</v>
+        <v>0.01964810845930526</v>
       </c>
       <c r="D43">
-        <v>-0.005757098317059339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04436547310004817</v>
+      </c>
+      <c r="E43">
+        <v>0.04217108795207994</v>
+      </c>
+      <c r="F43">
+        <v>-0.08495618944272969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01838425777760818</v>
+        <v>0.01453121531063709</v>
       </c>
       <c r="C44">
-        <v>0.05506264196829608</v>
+        <v>0.05052927511648567</v>
       </c>
       <c r="D44">
-        <v>-0.01762850843434126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04423439715388291</v>
+      </c>
+      <c r="E44">
+        <v>0.0578499094792911</v>
+      </c>
+      <c r="F44">
+        <v>-0.09131515964327201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0006609772600063256</v>
+        <v>0.007267361720172503</v>
       </c>
       <c r="C46">
-        <v>0.01939107291875998</v>
+        <v>0.02326301256144012</v>
       </c>
       <c r="D46">
-        <v>0.01570031235246358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01658586289497928</v>
+      </c>
+      <c r="E46">
+        <v>0.03458580140178685</v>
+      </c>
+      <c r="F46">
+        <v>-0.1038675758007444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07714483492613607</v>
+        <v>0.08489594579487245</v>
       </c>
       <c r="C47">
-        <v>0.07411830876909505</v>
+        <v>0.07874409452675253</v>
       </c>
       <c r="D47">
-        <v>0.003024436245414929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0102335830566265</v>
+      </c>
+      <c r="E47">
+        <v>0.05251291862864624</v>
+      </c>
+      <c r="F47">
+        <v>-0.08095405350084495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0185993794084242</v>
+        <v>0.01547455978107027</v>
       </c>
       <c r="C48">
-        <v>0.01168653668593082</v>
+        <v>0.0163810500812178</v>
       </c>
       <c r="D48">
-        <v>0.004731830270873552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02064347081131071</v>
+      </c>
+      <c r="E48">
+        <v>0.0446883104887548</v>
+      </c>
+      <c r="F48">
+        <v>-0.09611407406076994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08429779723924484</v>
+        <v>0.07119207302113857</v>
       </c>
       <c r="C50">
-        <v>0.06939490514822788</v>
+        <v>0.06931429004315583</v>
       </c>
       <c r="D50">
-        <v>0.01327286310068182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>8.995589687706382e-05</v>
+      </c>
+      <c r="E50">
+        <v>0.04992040086403682</v>
+      </c>
+      <c r="F50">
+        <v>-0.06833434263145856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01055756540154862</v>
+        <v>0.009731208370723173</v>
       </c>
       <c r="C51">
-        <v>0.04540927595776644</v>
+        <v>0.03298481398166416</v>
       </c>
       <c r="D51">
-        <v>-0.0009457271065694395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04960568277534178</v>
+      </c>
+      <c r="E51">
+        <v>0.01949894344236347</v>
+      </c>
+      <c r="F51">
+        <v>-0.08538842146728026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09103603505967853</v>
+        <v>0.09058675595321822</v>
       </c>
       <c r="C53">
-        <v>0.07645522692468451</v>
+        <v>0.09020605495322724</v>
       </c>
       <c r="D53">
-        <v>0.03471766399786717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03767794759893631</v>
+      </c>
+      <c r="E53">
+        <v>0.05385280598714513</v>
+      </c>
+      <c r="F53">
+        <v>-0.08906005373708265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02762460332374187</v>
+        <v>0.02720253136097426</v>
       </c>
       <c r="C54">
-        <v>0.01978427425470109</v>
+        <v>0.02565371843822985</v>
       </c>
       <c r="D54">
-        <v>-0.002883779828357171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03511634581687993</v>
+      </c>
+      <c r="E54">
+        <v>0.03797285831200921</v>
+      </c>
+      <c r="F54">
+        <v>-0.09446580582094566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07323837189705903</v>
+        <v>0.08199156505067086</v>
       </c>
       <c r="C55">
-        <v>0.0701147592551048</v>
+        <v>0.07414296671452859</v>
       </c>
       <c r="D55">
-        <v>0.03262268698582958</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04541090734087425</v>
+      </c>
+      <c r="E55">
+        <v>0.04431986804881142</v>
+      </c>
+      <c r="F55">
+        <v>-0.06390228289452937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1492018873283273</v>
+        <v>0.1433042773331257</v>
       </c>
       <c r="C56">
-        <v>0.09595485144516126</v>
+        <v>0.1075916244810393</v>
       </c>
       <c r="D56">
-        <v>0.02843645998475863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04853000849902254</v>
+      </c>
+      <c r="E56">
+        <v>0.0478931571553946</v>
+      </c>
+      <c r="F56">
+        <v>-0.05209461918111971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003789534125527541</v>
+        <v>0.001650942825533491</v>
       </c>
       <c r="C57">
-        <v>0.002670558463210526</v>
+        <v>0.001498894622327792</v>
       </c>
       <c r="D57">
-        <v>-0.01486205105862219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01545789637389889</v>
+      </c>
+      <c r="E57">
+        <v>0.006512012716762634</v>
+      </c>
+      <c r="F57">
+        <v>-0.01318687852253715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07855829083907497</v>
+        <v>0.02988635147331853</v>
       </c>
       <c r="C58">
-        <v>0.03506612272950824</v>
+        <v>0.03495888413551904</v>
       </c>
       <c r="D58">
-        <v>-0.967341225061905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5077662351743568</v>
+      </c>
+      <c r="E58">
+        <v>0.6710935599820755</v>
+      </c>
+      <c r="F58">
+        <v>0.4546975575478609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1407033573974127</v>
+        <v>0.1517687058522819</v>
       </c>
       <c r="C59">
-        <v>-0.2029167818041773</v>
+        <v>-0.1853422421294489</v>
       </c>
       <c r="D59">
-        <v>-0.023154959759727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03149057338591823</v>
+      </c>
+      <c r="E59">
+        <v>0.02434028849459446</v>
+      </c>
+      <c r="F59">
+        <v>-0.02313466526204726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3121375508286116</v>
+        <v>0.2787358946833669</v>
       </c>
       <c r="C60">
-        <v>0.09682084511145565</v>
+        <v>0.1056515264582057</v>
       </c>
       <c r="D60">
-        <v>0.0298570586447766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1976078282206014</v>
+      </c>
+      <c r="E60">
+        <v>-0.2796974673913639</v>
+      </c>
+      <c r="F60">
+        <v>0.1251096352814611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03545035293811213</v>
+        <v>0.03876977601068685</v>
       </c>
       <c r="C61">
-        <v>0.0628292783172716</v>
+        <v>0.06166045492681573</v>
       </c>
       <c r="D61">
-        <v>-0.01065233267014037</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0475560036825772</v>
+      </c>
+      <c r="E61">
+        <v>0.02274560555281527</v>
+      </c>
+      <c r="F61">
+        <v>-0.0806667222635904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0118415546377595</v>
+        <v>0.01447950748381768</v>
       </c>
       <c r="C63">
-        <v>0.035755366647066</v>
+        <v>0.0313852496478733</v>
       </c>
       <c r="D63">
-        <v>0.004708006152736066</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02422878079095634</v>
+      </c>
+      <c r="E63">
+        <v>0.03710935398521916</v>
+      </c>
+      <c r="F63">
+        <v>-0.07585724363112178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05018758159811312</v>
+        <v>0.05444876238621546</v>
       </c>
       <c r="C64">
-        <v>0.03054493987174895</v>
+        <v>0.05300894353652028</v>
       </c>
       <c r="D64">
-        <v>0.006111201426228572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01223671578222747</v>
+      </c>
+      <c r="E64">
+        <v>0.02194331692207969</v>
+      </c>
+      <c r="F64">
+        <v>-0.08817947471808356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09135489577197593</v>
+        <v>0.06574544872682275</v>
       </c>
       <c r="C65">
-        <v>0.04789753483465223</v>
+        <v>0.04262897097643203</v>
       </c>
       <c r="D65">
-        <v>-0.03327865290539356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08459435778977659</v>
+      </c>
+      <c r="E65">
+        <v>0.03419801110722893</v>
+      </c>
+      <c r="F65">
+        <v>-0.02581822034164491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06176486190924552</v>
+        <v>0.04877932845209045</v>
       </c>
       <c r="C66">
-        <v>0.1073392820023126</v>
+        <v>0.09231611831387902</v>
       </c>
       <c r="D66">
-        <v>-0.02323471767888407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07902971204360192</v>
+      </c>
+      <c r="E66">
+        <v>0.02005566236356282</v>
+      </c>
+      <c r="F66">
+        <v>-0.09086081357506763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05632119365106181</v>
+        <v>0.04799545294236125</v>
       </c>
       <c r="C67">
-        <v>0.03161162919945206</v>
+        <v>0.03124883105384543</v>
       </c>
       <c r="D67">
-        <v>0.007127959974363617</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0158044988495343</v>
+      </c>
+      <c r="E67">
+        <v>0.01955635954157015</v>
+      </c>
+      <c r="F67">
+        <v>-0.05367541166462313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1237514232708406</v>
+        <v>0.1579057805094525</v>
       </c>
       <c r="C68">
-        <v>-0.2850007449798905</v>
+        <v>-0.251423530011158</v>
       </c>
       <c r="D68">
-        <v>-0.005936126631697927</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01650912853577339</v>
+      </c>
+      <c r="E68">
+        <v>0.03857237101803934</v>
+      </c>
+      <c r="F68">
+        <v>-0.01666356926465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08526665699015856</v>
+        <v>0.08468507831190836</v>
       </c>
       <c r="C69">
-        <v>0.06871149652574449</v>
+        <v>0.08443459098122359</v>
       </c>
       <c r="D69">
-        <v>0.03197827649513142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.006376551643681386</v>
+      </c>
+      <c r="E69">
+        <v>0.02623292240826333</v>
+      </c>
+      <c r="F69">
+        <v>-0.09607533143399477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1284847969999496</v>
+        <v>0.149070507523784</v>
       </c>
       <c r="C71">
-        <v>-0.244138070169569</v>
+        <v>-0.2294664707116455</v>
       </c>
       <c r="D71">
-        <v>-0.01825687210196528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0164075881309278</v>
+      </c>
+      <c r="E71">
+        <v>0.05664257647820856</v>
+      </c>
+      <c r="F71">
+        <v>-0.05569999806191114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08096347301986175</v>
+        <v>0.09491212487388694</v>
       </c>
       <c r="C72">
-        <v>0.0482672842714509</v>
+        <v>0.05818816207081802</v>
       </c>
       <c r="D72">
-        <v>0.01932410527503685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02175525814399782</v>
+      </c>
+      <c r="E72">
+        <v>0.01028132864369467</v>
+      </c>
+      <c r="F72">
+        <v>-0.08289979809023366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4326996475896686</v>
+        <v>0.3449886319997403</v>
       </c>
       <c r="C73">
-        <v>0.07939176905906316</v>
+        <v>0.08780369562645472</v>
       </c>
       <c r="D73">
-        <v>-0.009509428926342628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4164479346624073</v>
+      </c>
+      <c r="E73">
+        <v>-0.497872682304181</v>
+      </c>
+      <c r="F73">
+        <v>0.2963823693781386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1173704597634755</v>
+        <v>0.110460038718752</v>
       </c>
       <c r="C74">
-        <v>0.1175092537202931</v>
+        <v>0.1028415768549101</v>
       </c>
       <c r="D74">
-        <v>0.01010008826538558</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02653054253975637</v>
+      </c>
+      <c r="E74">
+        <v>0.06640614645292274</v>
+      </c>
+      <c r="F74">
+        <v>-0.05851380327753102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2577871236296583</v>
+        <v>0.254170019556465</v>
       </c>
       <c r="C75">
-        <v>0.1360849606764178</v>
+        <v>0.1470898806425023</v>
       </c>
       <c r="D75">
-        <v>0.04690737377341744</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1282681425341461</v>
+      </c>
+      <c r="E75">
+        <v>0.08202937538640073</v>
+      </c>
+      <c r="F75">
+        <v>-0.02200633085421673</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1182275369218123</v>
+        <v>0.1269825687839774</v>
       </c>
       <c r="C76">
-        <v>0.1063824575036216</v>
+        <v>0.1082288860231222</v>
       </c>
       <c r="D76">
-        <v>0.03055077311166659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05917904533033033</v>
+      </c>
+      <c r="E76">
+        <v>0.07227185068865807</v>
+      </c>
+      <c r="F76">
+        <v>-0.0697175640734901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07435543495212042</v>
+        <v>0.06137484013239962</v>
       </c>
       <c r="C77">
-        <v>0.05847365878188945</v>
+        <v>0.06624866605750719</v>
       </c>
       <c r="D77">
-        <v>-0.04118646954189385</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06910763549364513</v>
+      </c>
+      <c r="E77">
+        <v>0.06610407022252271</v>
+      </c>
+      <c r="F77">
+        <v>-0.1206359090064728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04232980201105912</v>
+        <v>0.04175670430482225</v>
       </c>
       <c r="C78">
-        <v>0.04405300992392164</v>
+        <v>0.0551746889715416</v>
       </c>
       <c r="D78">
-        <v>-0.01250428235740683</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07370508961531679</v>
+      </c>
+      <c r="E78">
+        <v>0.01962569329174802</v>
+      </c>
+      <c r="F78">
+        <v>-0.1030635581244274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01970761325479229</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03365249775769429</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05497089983280021</v>
+      </c>
+      <c r="E79">
+        <v>0.0431980874951264</v>
+      </c>
+      <c r="F79">
+        <v>-0.03359457532973419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04555970626124457</v>
+        <v>0.03367476758827145</v>
       </c>
       <c r="C80">
-        <v>0.05249125144601884</v>
+        <v>0.05251024018685774</v>
       </c>
       <c r="D80">
-        <v>-0.02466059649706231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04767540226423442</v>
+      </c>
+      <c r="E80">
+        <v>0.008416442954749687</v>
+      </c>
+      <c r="F80">
+        <v>-0.0336564733907364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1398812777762054</v>
+        <v>0.1384781416406928</v>
       </c>
       <c r="C81">
-        <v>0.08233225129501301</v>
+        <v>0.0993924520017383</v>
       </c>
       <c r="D81">
-        <v>0.01974745846738744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09214806522549214</v>
+      </c>
+      <c r="E81">
+        <v>0.08170741628816086</v>
+      </c>
+      <c r="F81">
+        <v>-0.02603532474917051</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.06919183781065659</v>
+        <v>0.1903314556482407</v>
       </c>
       <c r="C82">
-        <v>0.04904179086811015</v>
+        <v>0.1424617668430998</v>
       </c>
       <c r="D82">
-        <v>0.02871275935084988</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2244834798709893</v>
+      </c>
+      <c r="E82">
+        <v>0.01950323124807977</v>
+      </c>
+      <c r="F82">
+        <v>-0.08033843446151688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02732121974161737</v>
+        <v>0.02665930961975222</v>
       </c>
       <c r="C83">
-        <v>0.02154818074603819</v>
+        <v>0.0385485065760403</v>
       </c>
       <c r="D83">
-        <v>-0.01402795499936143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03652340980882592</v>
+      </c>
+      <c r="E83">
+        <v>0.008592745307120007</v>
+      </c>
+      <c r="F83">
+        <v>-0.05221163787372295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2344514861477125</v>
+        <v>0.2035580389885704</v>
       </c>
       <c r="C85">
-        <v>0.1209222520168708</v>
+        <v>0.1299069116037498</v>
       </c>
       <c r="D85">
-        <v>0.1122646852021369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1074814439333681</v>
+      </c>
+      <c r="E85">
+        <v>0.005808730706714399</v>
+      </c>
+      <c r="F85">
+        <v>0.01474649957696581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.006221423904904809</v>
+        <v>0.0116952599303791</v>
       </c>
       <c r="C86">
-        <v>0.02199426344076595</v>
+        <v>0.02888304235634071</v>
       </c>
       <c r="D86">
-        <v>-0.02168570104328384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07666725698182079</v>
+      </c>
+      <c r="E86">
+        <v>0.04328725918075661</v>
+      </c>
+      <c r="F86">
+        <v>-0.1395940882418982</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0188570228077496</v>
+        <v>0.01927407850273602</v>
       </c>
       <c r="C87">
-        <v>0.01997784066525699</v>
+        <v>0.02081000421238763</v>
       </c>
       <c r="D87">
-        <v>-0.09123694885209405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09290272295341918</v>
+      </c>
+      <c r="E87">
+        <v>0.08074462986851978</v>
+      </c>
+      <c r="F87">
+        <v>-0.09311437017005991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1023716465079118</v>
+        <v>0.08827512063032891</v>
       </c>
       <c r="C88">
-        <v>0.07437062115754091</v>
+        <v>0.06428556767658665</v>
       </c>
       <c r="D88">
-        <v>0.01559246492129139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01357742915466677</v>
+      </c>
+      <c r="E88">
+        <v>0.03121873578701214</v>
+      </c>
+      <c r="F88">
+        <v>-0.07029987558459405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1989489039606609</v>
+        <v>0.2315636284020491</v>
       </c>
       <c r="C89">
-        <v>-0.3724748256650302</v>
+        <v>-0.3767398033460316</v>
       </c>
       <c r="D89">
-        <v>0.02735975662539475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0158536839454303</v>
+      </c>
+      <c r="E89">
+        <v>0.03484282859374346</v>
+      </c>
+      <c r="F89">
+        <v>-0.1004199759910172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1858412149047214</v>
+        <v>0.2090437236613838</v>
       </c>
       <c r="C90">
-        <v>-0.3427077952514696</v>
+        <v>-0.3147476335978331</v>
       </c>
       <c r="D90">
-        <v>-0.005671507802668581</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01052229869817055</v>
+      </c>
+      <c r="E90">
+        <v>0.06045557070388122</v>
+      </c>
+      <c r="F90">
+        <v>-0.04769093406915683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2003949447789544</v>
+        <v>0.1879694348606271</v>
       </c>
       <c r="C91">
-        <v>0.1181616930514448</v>
+        <v>0.1422331445533015</v>
       </c>
       <c r="D91">
-        <v>0.04661606812183298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09998210876883026</v>
+      </c>
+      <c r="E91">
+        <v>0.07480163544629664</v>
+      </c>
+      <c r="F91">
+        <v>-0.04795284144148308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1756874129572184</v>
+        <v>0.1893840580579475</v>
       </c>
       <c r="C92">
-        <v>-0.2776571583113587</v>
+        <v>-0.2724913655775494</v>
       </c>
       <c r="D92">
-        <v>0.01164392879100569</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.004804623012572864</v>
+      </c>
+      <c r="E92">
+        <v>0.06930773953109233</v>
+      </c>
+      <c r="F92">
+        <v>-0.06970097255668392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2084542401900763</v>
+        <v>0.2342517428279396</v>
       </c>
       <c r="C93">
-        <v>-0.3410872276422369</v>
+        <v>-0.3163466839581869</v>
       </c>
       <c r="D93">
-        <v>-0.0109823190113867</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002028728679746331</v>
+      </c>
+      <c r="E93">
+        <v>0.04824914192918434</v>
+      </c>
+      <c r="F93">
+        <v>-0.04205356481657239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2863327009280807</v>
+        <v>0.3366856684514405</v>
       </c>
       <c r="C94">
-        <v>0.1641324644040785</v>
+        <v>0.1983681713081504</v>
       </c>
       <c r="D94">
-        <v>0.06658847518045179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.469323082992509</v>
+      </c>
+      <c r="E94">
+        <v>0.1699802171699888</v>
+      </c>
+      <c r="F94">
+        <v>0.4366356431481376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09305589970424179</v>
+        <v>0.08091934535829468</v>
       </c>
       <c r="C95">
-        <v>0.07508032650630236</v>
+        <v>0.07387587362941589</v>
       </c>
       <c r="D95">
-        <v>-0.0188794913754059</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1497054400760739</v>
+      </c>
+      <c r="E95">
+        <v>-0.1408764213142965</v>
+      </c>
+      <c r="F95">
+        <v>-0.1969517149445899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2043990485268243</v>
+        <v>0.1882606204593581</v>
       </c>
       <c r="C98">
-        <v>0.02646158515913151</v>
+        <v>0.04582577251096154</v>
       </c>
       <c r="D98">
-        <v>-0.01300527545089483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1700919499005848</v>
+      </c>
+      <c r="E98">
+        <v>-0.1582554125711476</v>
+      </c>
+      <c r="F98">
+        <v>0.04089242876132486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0105852658610586</v>
+        <v>0.005716551907066773</v>
       </c>
       <c r="C101">
-        <v>0.02535272619309304</v>
+        <v>0.02536280946458155</v>
       </c>
       <c r="D101">
-        <v>0.01715109930820653</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02337374198797044</v>
+      </c>
+      <c r="E101">
+        <v>0.03099529336398128</v>
+      </c>
+      <c r="F101">
+        <v>-0.08945403659054504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1203352952168867</v>
+        <v>0.1206066352617223</v>
       </c>
       <c r="C102">
-        <v>0.07857955746809135</v>
+        <v>0.1022175675216814</v>
       </c>
       <c r="D102">
-        <v>0.04324097989287991</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05061842712598073</v>
+      </c>
+      <c r="E102">
+        <v>-0.01016763415600416</v>
+      </c>
+      <c r="F102">
+        <v>-0.03860621145961234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
